--- a/biology/Botanique/Schima_wallichii/Schima_wallichii.xlsx
+++ b/biology/Botanique/Schima_wallichii/Schima_wallichii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Schima wallichii est une espèce de plantes à fleurs de la famille des Theaceae. C'est un arbre originaire d'Asie.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Schima wallichii mesure, selon les sources, de 10 à 20 m de haut[3] ou de 15 à 25 m de haut[4]. 
-Les fleurs ont cinq pétales blancs[5], mesurent 3 cm de diamètre et sont pollinisées en particulier par des papillons dont l'imago de Eterusia aedea.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Schima wallichii mesure, selon les sources, de 10 à 20 m de haut ou de 15 à 25 m de haut. 
+Les fleurs ont cinq pétales blancs, mesurent 3 cm de diamètre et sont pollinisées en particulier par des papillons dont l'imago de Eterusia aedea.
 	Jardin botanique de la reine Sirikit, Thaïlande
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente en Chine, au Bangladesh, au Bhoutan, au Népal, en Inde, au Laos, en Birmanie, en Thaïlande, au Viêt Nam, en Indonésie, en Malaisie et aux Philippines[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente en Chine, au Bangladesh, au Bhoutan, au Népal, en Inde, au Laos, en Birmanie, en Thaïlande, au Viêt Nam, en Indonésie, en Malaisie et aux Philippines.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbre est utilisé dans les plantations de café, pour faire de l'ombre aux cultures. Il est également planté dans le cadre de projets de reforestation. Il s'agit d'une espèce pionnière qui pousse vite[7].
-Le bois est utilisé pour des constructions telles que des portes, des bateaux, des ponts etc[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbre est utilisé dans les plantations de café, pour faire de l'ombre aux cultures. Il est également planté dans le cadre de projets de reforestation. Il s'agit d'une espèce pionnière qui pousse vite.
+Le bois est utilisé pour des constructions telles que des portes, des bateaux, des ponts etc.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (23 février 2018)[8] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (23 février 2018) :
 sous-espèce Schima wallichii subsp. pulgarensis
 sous-espèce Schima wallichii subsp. wallichii
 variété Schima wallichii var. khasiana
